--- a/data/LISTE_LINEAIRE_DJINGBO.xlsx
+++ b/data/LISTE_LINEAIRE_DJINGBO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/dzidzinyok_who_int/Documents/RICHARD DZIDZINYO/WHO 2025/EPR/MPE DATA/Afection Inconnue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{14681668-669C-45B6-9E44-355A43AE308F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F792939-32C3-4156-A5B6-B1DE1AC68D52}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{14681668-669C-45B6-9E44-355A43AE308F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC79A2A6-5A89-4512-B89C-1D72C1AE8BFD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7FAE3EEC-A5D3-41C4-A858-E9E6F12EB44E}"/>
   </bookViews>
@@ -4071,6 +4071,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4371,11 +4375,11 @@
   <dimension ref="A1:U199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D113" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K160" sqref="K160"/>
       <selection pane="topRight" activeCell="K160" sqref="K160"/>
       <selection pane="bottomLeft" activeCell="K160" sqref="K160"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -12081,7 +12085,7 @@
     </row>
     <row r="147" spans="1:21" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A147" s="54">
-        <v>45719</v>
+        <v>45691</v>
       </c>
       <c r="B147" s="6">
         <v>146</v>
@@ -12137,7 +12141,7 @@
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="54">
-        <v>45719</v>
+        <v>45691</v>
       </c>
       <c r="B148" s="6">
         <v>147</v>
@@ -12193,7 +12197,7 @@
     </row>
     <row r="149" spans="1:21" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A149" s="54">
-        <v>45719</v>
+        <v>45691</v>
       </c>
       <c r="B149" s="6">
         <v>148</v>
@@ -12249,7 +12253,7 @@
     </row>
     <row r="150" spans="1:21" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A150" s="54">
-        <v>45719</v>
+        <v>45691</v>
       </c>
       <c r="B150" s="6">
         <v>149</v>

--- a/data/LISTE_LINEAIRE_DJINGBO.xlsx
+++ b/data/LISTE_LINEAIRE_DJINGBO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/dzidzinyok_who_int/Documents/RICHARD DZIDZINYO/WHO 2025/EPR/MPE DATA/Afection Inconnue/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{14681668-669C-45B6-9E44-355A43AE308F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC79A2A6-5A89-4512-B89C-1D72C1AE8BFD}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{14681668-669C-45B6-9E44-355A43AE308F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02D1266C-5DC3-4591-8034-3222F9BEFB80}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7FAE3EEC-A5D3-41C4-A858-E9E6F12EB44E}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Les décès" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Les cas '!$A$1:$Q$198</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Les cas '!$A$1:$U$198</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="557">
   <si>
     <t>Date de consultation/Notification</t>
   </si>
@@ -4375,17 +4375,17 @@
   <dimension ref="A1:U199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D113" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="K160" sqref="K160"/>
       <selection pane="topRight" activeCell="K160" sqref="K160"/>
       <selection pane="bottomLeft" activeCell="K160" sqref="K160"/>
-      <selection pane="bottomRight" activeCell="A199" sqref="A199"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="57" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="15" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.5703125" style="15"/>
     <col min="6" max="6" width="34.5703125" style="37" customWidth="1"/>
@@ -11859,7 +11859,7 @@
       <c r="S142" s="10"/>
       <c r="T142" s="10"/>
     </row>
-    <row r="143" spans="1:20" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A143" s="54">
         <v>45690</v>
       </c>
@@ -12360,9 +12360,7 @@
       <c r="R151" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S151" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S151" s="13"/>
       <c r="T151" s="14" t="s">
         <v>28</v>
       </c>
@@ -12420,9 +12418,7 @@
       <c r="R152" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S152" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S152" s="13"/>
       <c r="T152" s="14" t="s">
         <v>28</v>
       </c>
@@ -12480,9 +12476,7 @@
       <c r="R153" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S153" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S153" s="13"/>
       <c r="T153" s="14" t="s">
         <v>28</v>
       </c>
@@ -12540,9 +12534,7 @@
       <c r="R154" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S154" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S154" s="13"/>
       <c r="T154" s="14" t="s">
         <v>28</v>
       </c>
@@ -12600,9 +12592,7 @@
       <c r="R155" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S155" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S155" s="13"/>
       <c r="T155" s="14" t="s">
         <v>28</v>
       </c>
@@ -12660,9 +12650,7 @@
       <c r="R156" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S156" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S156" s="13"/>
       <c r="T156" s="14" t="s">
         <v>28</v>
       </c>
@@ -12720,9 +12708,7 @@
       <c r="R157" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S157" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S157" s="13"/>
       <c r="T157" s="14" t="s">
         <v>28</v>
       </c>
@@ -12780,9 +12766,7 @@
       <c r="R158" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S158" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S158" s="13"/>
       <c r="T158" s="14" t="s">
         <v>28</v>
       </c>
@@ -12843,9 +12827,7 @@
       <c r="R159" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S159" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S159" s="13"/>
       <c r="T159" s="14" t="s">
         <v>28</v>
       </c>
@@ -12903,9 +12885,7 @@
       <c r="R160" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S160" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S160" s="13"/>
       <c r="T160" s="14" t="s">
         <v>28</v>
       </c>
@@ -12963,9 +12943,7 @@
       <c r="R161" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S161" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S161" s="13"/>
       <c r="T161" s="14" t="s">
         <v>28</v>
       </c>
@@ -13023,9 +13001,7 @@
       <c r="R162" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S162" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S162" s="13"/>
       <c r="T162" s="14" t="s">
         <v>28</v>
       </c>
@@ -13083,9 +13059,7 @@
       <c r="R163" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S163" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S163" s="13"/>
       <c r="T163" s="14" t="s">
         <v>28</v>
       </c>
@@ -13143,9 +13117,7 @@
       <c r="R164" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S164" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S164" s="13"/>
       <c r="T164" s="14" t="s">
         <v>28</v>
       </c>
@@ -13203,9 +13175,7 @@
       <c r="R165" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S165" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S165" s="13"/>
       <c r="T165" s="14" t="s">
         <v>28</v>
       </c>
@@ -13263,9 +13233,7 @@
       <c r="R166" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S166" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S166" s="13"/>
       <c r="T166" s="14" t="s">
         <v>28</v>
       </c>
@@ -13323,9 +13291,7 @@
       <c r="R167" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S167" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S167" s="13"/>
       <c r="T167" s="14" t="s">
         <v>28</v>
       </c>
@@ -13383,9 +13349,7 @@
       <c r="R168" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S168" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S168" s="13"/>
       <c r="T168" s="14" t="s">
         <v>28</v>
       </c>
@@ -13443,9 +13407,7 @@
       <c r="R169" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S169" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S169" s="13"/>
       <c r="T169" s="14" t="s">
         <v>28</v>
       </c>
@@ -13503,9 +13465,7 @@
       <c r="R170" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S170" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S170" s="13"/>
       <c r="T170" s="14" t="s">
         <v>28</v>
       </c>
@@ -13563,9 +13523,7 @@
       <c r="R171" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S171" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S171" s="13"/>
       <c r="T171" s="14" t="s">
         <v>28</v>
       </c>
@@ -13623,9 +13581,7 @@
       <c r="R172" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S172" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S172" s="13"/>
       <c r="T172" s="14" t="s">
         <v>28</v>
       </c>
@@ -13683,9 +13639,7 @@
       <c r="R173" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S173" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S173" s="13"/>
       <c r="T173" s="14" t="s">
         <v>28</v>
       </c>
@@ -13743,9 +13697,7 @@
       <c r="R174" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S174" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S174" s="13"/>
       <c r="T174" s="14" t="s">
         <v>28</v>
       </c>
@@ -13803,9 +13755,7 @@
       <c r="R175" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S175" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S175" s="13"/>
       <c r="T175" s="14" t="s">
         <v>28</v>
       </c>
@@ -13863,9 +13813,7 @@
       <c r="R176" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S176" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S176" s="13"/>
       <c r="T176" s="14" t="s">
         <v>28</v>
       </c>
@@ -13923,9 +13871,7 @@
       <c r="R177" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S177" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S177" s="13"/>
       <c r="T177" s="14" t="s">
         <v>28</v>
       </c>
@@ -13986,9 +13932,7 @@
       <c r="R178" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S178" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S178" s="13"/>
       <c r="T178" s="14" t="s">
         <v>28</v>
       </c>
@@ -14046,9 +13990,7 @@
       <c r="R179" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S179" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S179" s="13"/>
       <c r="T179" s="14" t="s">
         <v>28</v>
       </c>
@@ -14106,9 +14048,7 @@
       <c r="R180" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S180" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S180" s="13"/>
       <c r="T180" s="14" t="s">
         <v>28</v>
       </c>
@@ -14166,9 +14106,7 @@
       <c r="R181" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S181" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S181" s="13"/>
       <c r="T181" s="14" t="s">
         <v>28</v>
       </c>
@@ -14226,9 +14164,7 @@
       <c r="R182" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S182" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S182" s="13"/>
       <c r="T182" s="14" t="s">
         <v>28</v>
       </c>
@@ -14289,9 +14225,7 @@
       <c r="R183" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S183" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S183" s="13"/>
       <c r="T183" s="14" t="s">
         <v>28</v>
       </c>
@@ -14349,9 +14283,7 @@
       <c r="R184" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S184" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S184" s="13"/>
       <c r="T184" s="14" t="s">
         <v>28</v>
       </c>
@@ -14409,9 +14341,7 @@
       <c r="R185" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S185" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S185" s="13"/>
       <c r="T185" s="14" t="s">
         <v>28</v>
       </c>
@@ -14469,9 +14399,7 @@
       <c r="R186" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S186" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S186" s="13"/>
       <c r="T186" s="14" t="s">
         <v>28</v>
       </c>
@@ -14529,9 +14457,7 @@
       <c r="R187" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S187" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S187" s="13"/>
       <c r="T187" s="14" t="s">
         <v>28</v>
       </c>
@@ -14589,9 +14515,7 @@
       <c r="R188" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S188" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S188" s="13"/>
       <c r="T188" s="14" t="s">
         <v>28</v>
       </c>
@@ -14649,9 +14573,7 @@
       <c r="R189" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S189" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S189" s="13"/>
       <c r="T189" s="14" t="s">
         <v>28</v>
       </c>
@@ -14709,9 +14631,7 @@
       <c r="R190" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S190" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S190" s="13"/>
       <c r="T190" s="14" t="s">
         <v>28</v>
       </c>
@@ -14769,9 +14689,7 @@
       <c r="R191" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S191" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S191" s="13"/>
       <c r="T191" s="14" t="s">
         <v>28</v>
       </c>
@@ -14829,9 +14747,7 @@
       <c r="R192" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S192" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S192" s="13"/>
       <c r="T192" s="14" t="s">
         <v>28</v>
       </c>
@@ -14889,9 +14805,7 @@
       <c r="R193" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S193" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S193" s="13"/>
       <c r="T193" s="14" t="s">
         <v>28</v>
       </c>
@@ -14949,9 +14863,7 @@
       <c r="R194" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S194" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S194" s="13"/>
       <c r="T194" s="14" t="s">
         <v>28</v>
       </c>
@@ -15009,9 +14921,7 @@
       <c r="R195" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S195" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S195" s="13"/>
       <c r="T195" s="14" t="s">
         <v>28</v>
       </c>
@@ -15069,9 +14979,7 @@
       <c r="R196" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S196" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S196" s="13"/>
       <c r="T196" s="14" t="s">
         <v>28</v>
       </c>
@@ -15129,9 +15037,7 @@
       <c r="R197" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S197" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S197" s="13"/>
       <c r="T197" s="14" t="s">
         <v>28</v>
       </c>
@@ -15189,9 +15095,7 @@
       <c r="R198" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S198" s="13" t="s">
-        <v>28</v>
-      </c>
+      <c r="S198" s="13"/>
       <c r="T198" s="14" t="s">
         <v>28</v>
       </c>
@@ -15203,7 +15107,7 @@
       <c r="R199" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q198" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:U198" xr:uid="{7EF49BEE-CF51-4EC5-A5A7-0D24A0A9E2AA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
